--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_25_38.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_25_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3644023.964275003</v>
+        <v>3641771.884563795</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>127.6501362820659</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>113.6883373826029</v>
       </c>
     </row>
     <row r="3">
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>70.99506002739665</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>115.0138334144183</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>122.2882635917089</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,10 +947,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>357.865627154565</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>88.57069981398647</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,22 +1102,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>117.7126336312584</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>142.3478174606644</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>22.05778319390867</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1339,25 +1339,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>83.32727861849541</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>58.28185552386351</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>83.06560892428213</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>214.3978296695751</v>
       </c>
     </row>
     <row r="14">
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722627</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1771,19 +1771,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>20.88994825141626</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>110.0177171766865</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>53.11937003877912</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428257</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>194.5707234541129</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2384,7 +2384,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2485,16 +2485,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703266</v>
+        <v>107.317805417867</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710084</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2719,19 +2719,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>1.799772605716168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>248.3840700603484</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2789,10 +2789,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634788</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>33.0162797694411</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>108.2950343703266</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>110.0177171766856</v>
+        <v>20.43112068613158</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3202,10 +3202,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3430,16 +3430,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="F37" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3661,22 +3661,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>39.52129633183119</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>93.4044447618827</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>80.08971311158706</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -3949,7 +3949,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>171.6912157329567</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3961,10 +3961,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4135,7 +4135,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4150,10 +4150,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>46.15319674220954</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,16 +4183,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>126.1348013633905</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1308.370295943748</v>
+        <v>1197.073083428566</v>
       </c>
       <c r="C2" t="n">
-        <v>1308.370295943748</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="D2" t="n">
-        <v>950.1045973369974</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="E2" t="n">
-        <v>950.1045973369974</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
@@ -4328,10 +4328,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
@@ -4340,7 +4340,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4373,7 +4373,7 @@
         <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943748</v>
+        <v>1583.672923492688</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4440,7 +4440,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66.51211643218342</v>
+        <v>138.2242982780386</v>
       </c>
       <c r="C4" t="n">
-        <v>66.51211643218342</v>
+        <v>138.2242982780386</v>
       </c>
       <c r="D4" t="n">
-        <v>66.51211643218342</v>
+        <v>138.2242982780386</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218342</v>
+        <v>138.2242982780386</v>
       </c>
       <c r="F4" t="n">
         <v>66.51211643218342</v>
@@ -4510,28 +4510,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181849</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181849</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="V4" t="n">
-        <v>804.7114165106916</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="W4" t="n">
-        <v>515.2942464737309</v>
+        <v>319.8727631082783</v>
       </c>
       <c r="X4" t="n">
-        <v>287.3046955757135</v>
+        <v>319.8727631082783</v>
       </c>
       <c r="Y4" t="n">
-        <v>66.51211643218342</v>
+        <v>319.8727631082783</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1320.35562273557</v>
+        <v>1381.278680221568</v>
       </c>
       <c r="C5" t="n">
-        <v>1320.35562273557</v>
+        <v>1012.316163281156</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>654.0504646744055</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
         <v>523.5814653477182</v>
@@ -4571,13 +4571,13 @@
         <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X5" t="n">
-        <v>1710.494954711382</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="Y5" t="n">
-        <v>1320.35562273557</v>
+        <v>1767.878520285689</v>
       </c>
     </row>
     <row r="6">
@@ -4620,10 +4620,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
         <v>618.1564155387305</v>
@@ -4632,46 +4632,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>471.1308394896936</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C7" t="n">
-        <v>302.1946565617867</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
         <v>66.51211643218342</v>
@@ -4723,52 +4723,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>729.201121645011</v>
       </c>
       <c r="T7" t="n">
-        <v>699.1203903877109</v>
+        <v>610.2994715124267</v>
       </c>
       <c r="U7" t="n">
-        <v>699.1203903877109</v>
+        <v>321.1966046380703</v>
       </c>
       <c r="V7" t="n">
-        <v>699.1203903877109</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="W7" t="n">
-        <v>699.1203903877109</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="X7" t="n">
-        <v>471.1308394896936</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y7" t="n">
-        <v>471.1308394896936</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1215.758282883553</v>
+        <v>1311.909787855436</v>
       </c>
       <c r="C8" t="n">
-        <v>846.7957659431409</v>
+        <v>1168.124113652745</v>
       </c>
       <c r="D8" t="n">
-        <v>488.5300673363904</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E8" t="n">
-        <v>488.5300673363904</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678287</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3303.325232524415</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3303.325232524415</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>3049.794755798251</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V8" t="n">
-        <v>2718.73186845468</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W8" t="n">
-        <v>2365.963213184566</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>1992.497454923486</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y8" t="n">
-        <v>1602.358122947674</v>
+        <v>1698.509627919558</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181849</v>
+        <v>729.201121645011</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181849</v>
+        <v>645.0321533435005</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181849</v>
+        <v>355.929286469144</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181849</v>
+        <v>355.929286469144</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181849</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181849</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>66.51211643218339</v>
       </c>
     </row>
     <row r="11">
@@ -5036,19 +5036,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
@@ -5060,7 +5060,7 @@
         <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398594</v>
@@ -5072,16 +5072,16 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5118,28 +5118,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L12" t="n">
-        <v>93.81666304797189</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1318.793114229131</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>1870.702844468418</v>
+        <v>2222.001901828446</v>
       </c>
       <c r="P12" t="n">
-        <v>2294.325993963486</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="D13" t="n">
-        <v>261.0127623330919</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797189</v>
@@ -5206,7 +5206,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5215,13 +5215,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
         <v>2197.062545487568</v>
@@ -5239,10 +5239,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>699.7311804011399</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5273,28 +5273,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852256</v>
@@ -5321,7 +5321,7 @@
         <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5355,28 +5355,28 @@
         <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797189</v>
@@ -5467,19 +5467,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5510,28 +5510,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
@@ -5543,10 +5543,10 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5589,25 +5589,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273908</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K18" t="n">
-        <v>506.2737913123329</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>506.2737913123329</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.652278938885</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N18" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
         <v>2283.159972732779</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400721</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>376.4492432300688</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797189</v>
@@ -5680,7 +5680,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570818</v>
@@ -5689,13 +5689,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
         <v>2197.062545487568</v>
@@ -5713,10 +5713,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5747,19 +5747,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355936</v>
@@ -5826,25 +5826,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>680.0291294438167</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438167</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P21" t="n">
         <v>2283.159972732779</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400721</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121652</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121652</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121652</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121652</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270452</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5917,7 +5917,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570818</v>
@@ -5926,13 +5926,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
         <v>2197.062545487568</v>
@@ -5950,10 +5950,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.294644713842</v>
+        <v>947.7481113147751</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703119</v>
+        <v>726.955532171245</v>
       </c>
     </row>
     <row r="23">
@@ -5969,13 +5969,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,22 +5984,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>426.0170212122713</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6187,10 +6187,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>552.3777707160739</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6421,13 +6421,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1182.808365587861</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>954.8188146898437</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>734.0262355463136</v>
       </c>
     </row>
     <row r="29">
@@ -6452,61 +6452,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192468</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111702</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="30">
@@ -6528,40 +6528,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G30" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273899</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D31" t="n">
-        <v>235.5284942057738</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E31" t="n">
-        <v>235.5284942057738</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F31" t="n">
-        <v>235.5284942057738</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6689,19 +6689,19 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6780,25 +6780,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468417</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963485</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6835,22 +6835,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6923,7 +6923,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -7011,28 +7011,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7078,13 +7078,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7154,13 +7154,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,10 +7169,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075813</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>680.0291294438176</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597619</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D40" t="n">
-        <v>411.9631215597619</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E40" t="n">
-        <v>411.9631215597619</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F40" t="n">
-        <v>411.9631215597619</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000583</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
@@ -7409,10 +7409,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7488,22 +7488,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>680.0291294438176</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>734.6461798836013</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="C43" t="n">
-        <v>565.7099969556945</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
@@ -7597,22 +7597,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2023.637075050237</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1734.561848394435</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1479.877360188548</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="Y43" t="n">
-        <v>916.2946447138411</v>
+        <v>969.6676110080573</v>
       </c>
     </row>
     <row r="44">
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7731,16 +7731,16 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>916.3099000622261</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="C46" t="n">
-        <v>747.3737171343192</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D46" t="n">
-        <v>597.2570777219835</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E46" t="n">
-        <v>449.3439841395904</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F46" t="n">
-        <v>449.3439841395904</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G46" t="n">
-        <v>282.1478848544703</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>140.4360536966684</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7831,25 +7831,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1836.157664970974</v>
+        <v>1560.976963588655</v>
       </c>
       <c r="W46" t="n">
-        <v>1546.740494934013</v>
+        <v>1271.559793551694</v>
       </c>
       <c r="X46" t="n">
-        <v>1318.750944035996</v>
+        <v>1043.570242653677</v>
       </c>
       <c r="Y46" t="n">
-        <v>1097.958364892466</v>
+        <v>822.7776635101469</v>
       </c>
     </row>
   </sheetData>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>65.54986409393022</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>4.18682368251973</v>
       </c>
     </row>
     <row r="14">
@@ -23659,19 +23659,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>119.4047645948076</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>57.22910392194132</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>93.31459260779005</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194129</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>31.13893193492422</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194223</v>
+        <v>58.20633287440187</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>38.13892827624261</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>40.32043864788574</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>57.22910392194228</v>
+        <v>146.8157004124963</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25318,16 +25318,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>38.13892827624255</v>
       </c>
       <c r="F37" t="n">
-        <v>62.35543909864957</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25549,22 +25549,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>72.11969353038614</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25786,22 +25786,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>68.5257599066253</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>45.7142345943316</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25849,10 +25849,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>35.112639576356</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,16 +26071,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>126.0028419604375</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>660965.8788773126</v>
+        <v>660965.8788773128</v>
       </c>
     </row>
     <row r="6">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>660965.8788773128</v>
+        <v>660965.8788773126</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>660965.8788773126</v>
+        <v>660965.8788773128</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>660965.8788773126</v>
+        <v>660965.8788773128</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>660965.8788773128</v>
+        <v>660965.8788773126</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>660965.8788773128</v>
+        <v>660965.8788773126</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710688</v>
+        <v>779989.6813710689</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.681371069</v>
+        <v>779989.6813710687</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.681371069</v>
+        <v>779989.6813710687</v>
       </c>
       <c r="E2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="F2" t="n">
         <v>766789.2697055058</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>766789.2697055059</v>
       </c>
-      <c r="G2" t="n">
-        <v>766789.2697055058</v>
-      </c>
       <c r="H2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="I2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="J2" t="n">
         <v>766789.2697055059</v>
       </c>
       <c r="K2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="L2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="M2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="N2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="O2" t="n">
         <v>766789.2697055056</v>
       </c>
-      <c r="N2" t="n">
-        <v>766789.2697055059</v>
-      </c>
-      <c r="O2" t="n">
-        <v>766789.2697055059</v>
-      </c>
       <c r="P2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055058</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073559</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551196</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,16 +26421,16 @@
         <v>93596.74410405254</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.7441040526</v>
       </c>
       <c r="E4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="F4" t="n">
-        <v>16046.58397189193</v>
+        <v>16046.58397189196</v>
       </c>
       <c r="G4" t="n">
-        <v>16046.58397189192</v>
+        <v>16046.58397189196</v>
       </c>
       <c r="H4" t="n">
         <v>16046.58397189199</v>
@@ -26439,22 +26439,22 @@
         <v>16046.583971892</v>
       </c>
       <c r="J4" t="n">
-        <v>16046.58397189204</v>
+        <v>16046.58397189194</v>
       </c>
       <c r="K4" t="n">
-        <v>16046.583971892</v>
+        <v>16046.58397189206</v>
       </c>
       <c r="L4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189198</v>
       </c>
       <c r="M4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="N4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.583971892</v>
       </c>
       <c r="O4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189198</v>
       </c>
       <c r="P4" t="n">
         <v>16046.58397189197</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-750285.7490219696</v>
+        <v>-750285.7490219695</v>
       </c>
       <c r="C6" t="n">
-        <v>578458.9967056232</v>
+        <v>578458.9967056231</v>
       </c>
       <c r="D6" t="n">
-        <v>578458.9967056232</v>
+        <v>578458.9967056229</v>
       </c>
       <c r="E6" t="n">
-        <v>324207.6941023513</v>
+        <v>324172.9561769153</v>
       </c>
       <c r="F6" t="n">
-        <v>649620.1559097068</v>
+        <v>649585.4179842714</v>
       </c>
       <c r="G6" t="n">
-        <v>649620.1559097066</v>
+        <v>649585.4179842712</v>
       </c>
       <c r="H6" t="n">
-        <v>649620.1559097068</v>
+        <v>649585.417984271</v>
       </c>
       <c r="I6" t="n">
-        <v>649620.1559097072</v>
+        <v>649585.4179842711</v>
       </c>
       <c r="J6" t="n">
-        <v>432088.9535124294</v>
+        <v>432054.2155869936</v>
       </c>
       <c r="K6" t="n">
-        <v>649620.155909707</v>
+        <v>649585.4179842712</v>
       </c>
       <c r="L6" t="n">
-        <v>649620.1559097066</v>
+        <v>649585.4179842712</v>
       </c>
       <c r="M6" t="n">
-        <v>564565.1279741946</v>
+        <v>564530.3900487592</v>
       </c>
       <c r="N6" t="n">
-        <v>649620.1559097068</v>
+        <v>649585.4179842711</v>
       </c>
       <c r="O6" t="n">
-        <v>649620.1559097068</v>
+        <v>649585.4179842708</v>
       </c>
       <c r="P6" t="n">
-        <v>649620.1559097068</v>
+        <v>649585.4179842711</v>
       </c>
     </row>
   </sheetData>
@@ -26710,7 +26710,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26793,7 +26793,7 @@
         <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26811,7 +26811,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26966,13 +26966,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483761</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.401455402293</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>279.2259094596455</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>272.5496012734507</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27546,7 +27546,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>74.4259879955346</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>137.1238099094097</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>259.6421064805529</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27667,10 +27667,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>11.86547352390403</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,10 +27774,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>60.04477320422589</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27789,10 +27789,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>101.8363156449108</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>222.9250743103431</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>87.12997859426717</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28029,7 +28029,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>136.2216706576738</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>160.3027978282313</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29104,7 +29104,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29509,10 +29509,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1.736439038534721e-12</v>
       </c>
       <c r="C29" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31792,7 +31792,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,34 +31838,34 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>431.3680753731345</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31932,7 +31932,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32075,7 +32075,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422586</v>
@@ -32090,16 +32090,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>277.2922978908101</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742439</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32266,7 +32266,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,28 +32309,28 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>401.5213364813682</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>416.7024900153327</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
         <v>375.5996128485291</v>
@@ -32339,7 +32339,7 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32406,7 +32406,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,40 +32461,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159405</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
@@ -32503,7 +32503,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32552,22 +32552,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>240.4469701760381</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.87657862147</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q21" t="n">
         <v>375.5996128485291</v>
@@ -32576,7 +32576,7 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796262</v>
@@ -32643,7 +32643,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32783,13 +32783,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32798,19 +32798,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
@@ -33029,7 +33029,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33041,13 +33041,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704906</v>
+        <v>548.8125296967492</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067219</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33257,25 +33257,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33284,7 +33284,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33427,7 +33427,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
         <v>981.2715114159425</v>
@@ -33500,7 +33500,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>587.1221002143864</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33679,7 +33679,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33731,31 +33731,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>270.9486956727256</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33889,13 +33889,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
         <v>867.846407116256</v>
@@ -33968,34 +33968,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>616.9033572954396</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34129,7 +34129,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34141,7 +34141,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460027</v>
@@ -34208,25 +34208,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>342.490526454265</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34451,19 +34451,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>297.3936679588043</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35577,7 +35577,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35723,7 +35723,7 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35738,16 +35738,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>134.6960534463657</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902405</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>263.6798975070092</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>285.3607779319995</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36051,7 +36051,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193496</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902405</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>101.8925903961639</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071398</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
         <v>264.332588409635</v>
@@ -36288,7 +36288,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
         <v>373.2618997060455</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36446,19 +36446,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -36677,7 +36677,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36689,13 +36689,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561604</v>
+        <v>414.838122282419</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236316015</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36905,25 +36905,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -36932,7 +36932,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37075,7 +37075,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>444.525855769942</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,31 +37379,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>128.8146617507074</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37537,13 +37537,13 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>485.5616452121063</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37789,7 +37789,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37856,25 +37856,25 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>211.1488143709317</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38099,19 +38099,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
